--- a/projet_pidev/QuestionsParCodeQuiz.xlsx
+++ b/projet_pidev/QuestionsParCodeQuiz.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Code Quiz</t>
   </si>
@@ -26,31 +26,22 @@
     <t>Réponse Correcte</t>
   </si>
   <si>
-    <t xml:space="preserve">  REMPLIR LE FORMULAIRE ?</t>
+    <t>QUOI</t>
   </si>
   <si>
-    <t>1)dfgfds2)dfgfdsg3)dfgfd</t>
+    <t>1)3 2)2 3)4</t>
   </si>
   <si>
-    <t>aleh tetsaref akeya sahby ?</t>
+    <t>aleh ?</t>
   </si>
   <si>
-    <t>1)akeka  2)naarech  3)jsp</t>
+    <t>1)akeka 2)naarech 3)jsp</t>
   </si>
   <si>
-    <t>koli aleh ?</t>
+    <t>aleh</t>
   </si>
   <si>
-    <t>zaama shyha lahkeya ?</t>
-  </si>
-  <si>
-    <t>1)dhaharli 2)naarech  3)jsp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kifeh </t>
-  </si>
-  <si>
-    <t>1)akeka 2)aleh 3)ey</t>
+    <t>wakteh</t>
   </si>
 </sst>
 </file>
@@ -102,8 +93,8 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="10.12890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.4765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.1875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.3359375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="16.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -123,7 +114,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10.0</v>
+        <v>34.0</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -132,12 +123,12 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>166.0</v>
+        <v>34.0</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -151,27 +142,27 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>166.0</v>
+        <v>34.0</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>166.0</v>
+        <v>34.0</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
         <v>3.0</v>
@@ -179,13 +170,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
         <v>3.0</v>
